--- a/output_analysis/START_4_SEC_5.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_5.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,410 +434,515 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2 28 35 133 196 215</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4 27 64 72 85 227 254</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
       </c>
       <c r="D2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 22 34 40 96 119 147</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>49 55 73 77 98</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>51 138 171 206</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>150 186 192 198 208 245</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69</v>
+      </c>
+      <c r="E6" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1 14 29 38 46 57 129</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28 39 52 88 115 124 175 183</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>98</v>
+      </c>
+      <c r="E8" t="n">
+        <v>98</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>53 63 89 149 168</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>68 110 125 137 140 230</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>111 131 145 155 169 185</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89</v>
+      </c>
+      <c r="E11" t="n">
         <v>94</v>
       </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F11" t="n">
+        <v>29</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>43 92 108 130 157 200</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>94 109 116 156 189</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>69</v>
+      </c>
+      <c r="E13" t="n">
+        <v>96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217 229 242 281</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>39</v>
+      </c>
+      <c r="E14" t="n">
+        <v>46</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>261 268</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5 20 50 74</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>61</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15 19 42 82 142</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>95</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25 48 90 151 283</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>44 70 84 101 146</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85</v>
+      </c>
+      <c r="E19" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6 45 93 112 128</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9 48 49 73</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>96</v>
-      </c>
-      <c r="E4" t="n">
-        <v>70</v>
-      </c>
-      <c r="F4" t="n">
-        <v>96</v>
-      </c>
-      <c r="G4" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>14 46 59 82 122 164</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>75 91 105 218</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
         <v>84</v>
       </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E20" t="n">
+        <v>92</v>
+      </c>
+      <c r="F20" t="n">
+        <v>27</v>
+      </c>
+      <c r="G20" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>16 97 116 125 146 261</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>98</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98</v>
-      </c>
-      <c r="G6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15 27 30 51 88 95</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" t="n">
-        <v>91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>21 24 79 107 117 131 211</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>90</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>70 83 89 129 138</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>96</v>
-      </c>
-      <c r="G9" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>156 168 177 277</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>96</v>
-      </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
-      <c r="F10" t="n">
-        <v>96</v>
-      </c>
-      <c r="G10" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>160 187 200 238</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>98</v>
-      </c>
-      <c r="E11" t="n">
-        <v>84</v>
-      </c>
-      <c r="F11" t="n">
-        <v>98</v>
-      </c>
-      <c r="G11" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5 57 110 134 232</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12 162 218</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>82</v>
-      </c>
-      <c r="E13" t="n">
-        <v>56</v>
-      </c>
-      <c r="F13" t="n">
-        <v>82</v>
-      </c>
-      <c r="G13" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>140 161 185 268</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>94</v>
-      </c>
-      <c r="E14" t="n">
-        <v>77</v>
-      </c>
-      <c r="F14" t="n">
-        <v>94</v>
-      </c>
-      <c r="G14" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>165 174 186 226 242</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>82</v>
-      </c>
-      <c r="F15" t="n">
-        <v>98</v>
-      </c>
-      <c r="G15" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>214 248 266 288</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>76</v>
-      </c>
-      <c r="E16" t="n">
-        <v>63</v>
-      </c>
-      <c r="F16" t="n">
-        <v>76</v>
-      </c>
-      <c r="G16" t="n">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
